--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.304346492204</v>
+        <v>113.3752785</v>
       </c>
       <c r="H2">
-        <v>109.304346492204</v>
+        <v>226.750557</v>
       </c>
       <c r="I2">
-        <v>0.06524927292948618</v>
+        <v>0.06376184507388981</v>
       </c>
       <c r="J2">
-        <v>0.06524927292948618</v>
+        <v>0.04522517177062929</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.92619761844537</v>
+        <v>7.930325</v>
       </c>
       <c r="N2">
-        <v>7.92619761844537</v>
+        <v>15.86065</v>
       </c>
       <c r="O2">
-        <v>0.10555607760007</v>
+        <v>0.1037243007717083</v>
       </c>
       <c r="P2">
-        <v>0.10555607760007</v>
+        <v>0.07315997304409949</v>
       </c>
       <c r="Q2">
-        <v>866.3678508522349</v>
+        <v>899.1028054705125</v>
       </c>
       <c r="R2">
-        <v>866.3678508522349</v>
+        <v>3596.41122188205</v>
       </c>
       <c r="S2">
-        <v>0.006887457316692988</v>
+        <v>0.006613652796203216</v>
       </c>
       <c r="T2">
-        <v>0.006887457316692988</v>
+        <v>0.003308672347654008</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.304346492204</v>
+        <v>113.3752785</v>
       </c>
       <c r="H3">
-        <v>109.304346492204</v>
+        <v>226.750557</v>
       </c>
       <c r="I3">
-        <v>0.06524927292948618</v>
+        <v>0.06376184507388981</v>
       </c>
       <c r="J3">
-        <v>0.06524927292948618</v>
+        <v>0.04522517177062929</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.05266536845071</v>
+        <v>6.598259666666666</v>
       </c>
       <c r="N3">
-        <v>6.05266536845071</v>
+        <v>19.794779</v>
       </c>
       <c r="O3">
-        <v>0.08060556222224891</v>
+        <v>0.08630161692429571</v>
       </c>
       <c r="P3">
-        <v>0.08060556222224891</v>
+        <v>0.09130681895470279</v>
       </c>
       <c r="Q3">
-        <v>661.5826326345</v>
+        <v>748.0795273236505</v>
       </c>
       <c r="R3">
-        <v>661.5826326345</v>
+        <v>4488.477163941903</v>
       </c>
       <c r="S3">
-        <v>0.0052594543290742</v>
+        <v>0.00550275032795313</v>
       </c>
       <c r="T3">
-        <v>0.0052594543290742</v>
+        <v>0.004129366571056184</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.304346492204</v>
+        <v>113.3752785</v>
       </c>
       <c r="H4">
-        <v>109.304346492204</v>
+        <v>226.750557</v>
       </c>
       <c r="I4">
-        <v>0.06524927292948618</v>
+        <v>0.06376184507388981</v>
       </c>
       <c r="J4">
-        <v>0.06524927292948618</v>
+        <v>0.04522517177062929</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.7776481965349</v>
+        <v>26.823721</v>
       </c>
       <c r="N4">
-        <v>26.7776481965349</v>
+        <v>80.471163</v>
       </c>
       <c r="O4">
-        <v>0.3566077515406694</v>
+        <v>0.3508395563637543</v>
       </c>
       <c r="P4">
-        <v>0.3566077515406694</v>
+        <v>0.371187064584827</v>
       </c>
       <c r="Q4">
-        <v>2926.913336720393</v>
+        <v>3041.146838781299</v>
       </c>
       <c r="R4">
-        <v>2926.913336720393</v>
+        <v>18246.88103268779</v>
       </c>
       <c r="S4">
-        <v>0.02326839650904753</v>
+        <v>0.02237017743865793</v>
       </c>
       <c r="T4">
-        <v>0.02326839650904753</v>
+        <v>0.01678699875488447</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>109.304346492204</v>
+        <v>113.3752785</v>
       </c>
       <c r="H5">
-        <v>109.304346492204</v>
+        <v>226.750557</v>
       </c>
       <c r="I5">
-        <v>0.06524927292948618</v>
+        <v>0.06376184507388981</v>
       </c>
       <c r="J5">
-        <v>0.06524927292948618</v>
+        <v>0.04522517177062929</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.7170222531036</v>
+        <v>22.88541033333333</v>
       </c>
       <c r="N5">
-        <v>22.7170222531036</v>
+        <v>68.65623099999999</v>
       </c>
       <c r="O5">
-        <v>0.3025309081634334</v>
+        <v>0.2993286132281626</v>
       </c>
       <c r="P5">
-        <v>0.3025309081634334</v>
+        <v>0.3166886608852391</v>
       </c>
       <c r="Q5">
-        <v>2483.069271624345</v>
+        <v>2594.639770128444</v>
       </c>
       <c r="R5">
-        <v>2483.069271624345</v>
+        <v>15567.83862077067</v>
       </c>
       <c r="S5">
-        <v>0.01973992179636118</v>
+        <v>0.01908574466283638</v>
       </c>
       <c r="T5">
-        <v>0.01973992179636118</v>
+        <v>0.01432229908634551</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>109.304346492204</v>
+        <v>113.3752785</v>
       </c>
       <c r="H6">
-        <v>109.304346492204</v>
+        <v>226.750557</v>
       </c>
       <c r="I6">
-        <v>0.06524927292948618</v>
+        <v>0.06376184507388981</v>
       </c>
       <c r="J6">
-        <v>0.06524927292948618</v>
+        <v>0.04522517177062929</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.01702321356988</v>
+        <v>7.575090333333333</v>
       </c>
       <c r="N6">
-        <v>7.01702321356988</v>
+        <v>22.725271</v>
       </c>
       <c r="O6">
-        <v>0.09344826895678034</v>
+        <v>0.09907802619785785</v>
       </c>
       <c r="P6">
-        <v>0.09344826895678034</v>
+        <v>0.1048242167742089</v>
       </c>
       <c r="Q6">
-        <v>766.991136679881</v>
+        <v>858.8279762043245</v>
       </c>
       <c r="R6">
-        <v>766.991136679881</v>
+        <v>5152.967857225947</v>
       </c>
       <c r="S6">
-        <v>0.006097431605948991</v>
+        <v>0.006317397756654609</v>
       </c>
       <c r="T6">
-        <v>0.006097431605948991</v>
+        <v>0.004740693209335276</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>109.304346492204</v>
+        <v>113.3752785</v>
       </c>
       <c r="H7">
-        <v>109.304346492204</v>
+        <v>226.750557</v>
       </c>
       <c r="I7">
-        <v>0.06524927292948618</v>
+        <v>0.06376184507388981</v>
       </c>
       <c r="J7">
-        <v>0.06524927292948618</v>
+        <v>0.04522517177062929</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.59936520618204</v>
+        <v>4.6429995</v>
       </c>
       <c r="N7">
-        <v>4.59936520618204</v>
+        <v>9.285999</v>
       </c>
       <c r="O7">
-        <v>0.06125143151679791</v>
+        <v>0.06072788651422123</v>
       </c>
       <c r="P7">
-        <v>0.06125143151679791</v>
+        <v>0.04283326575692263</v>
       </c>
       <c r="Q7">
-        <v>502.730608140709</v>
+        <v>526.4013613878608</v>
       </c>
       <c r="R7">
-        <v>502.730608140709</v>
+        <v>2105.605445551443</v>
       </c>
       <c r="S7">
-        <v>0.003996611372361279</v>
+        <v>0.003872122091584536</v>
       </c>
       <c r="T7">
-        <v>0.003996611372361279</v>
+        <v>0.00193714180135384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1294.40133208617</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H8">
-        <v>1294.40133208617</v>
+        <v>4142.81842</v>
       </c>
       <c r="I8">
-        <v>0.7726933878480751</v>
+        <v>0.7766353469649819</v>
       </c>
       <c r="J8">
-        <v>0.7726933878480751</v>
+        <v>0.8262809897266405</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.92619761844537</v>
+        <v>7.930325</v>
       </c>
       <c r="N8">
-        <v>7.92619761844537</v>
+        <v>15.86065</v>
       </c>
       <c r="O8">
-        <v>0.10555607760007</v>
+        <v>0.1037243007717083</v>
       </c>
       <c r="P8">
-        <v>0.10555607760007</v>
+        <v>0.07315997304409949</v>
       </c>
       <c r="Q8">
-        <v>10259.68075569391</v>
+        <v>10951.29882886217</v>
       </c>
       <c r="R8">
-        <v>10259.68075569391</v>
+        <v>65707.792973173</v>
       </c>
       <c r="S8">
-        <v>0.08156248320875238</v>
+        <v>0.08055595831853585</v>
       </c>
       <c r="T8">
-        <v>0.08156248320875238</v>
+        <v>0.06045069493525287</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1294.40133208617</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H9">
-        <v>1294.40133208617</v>
+        <v>4142.81842</v>
       </c>
       <c r="I9">
-        <v>0.7726933878480751</v>
+        <v>0.7766353469649819</v>
       </c>
       <c r="J9">
-        <v>0.7726933878480751</v>
+        <v>0.8262809897266405</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.05266536845071</v>
+        <v>6.598259666666666</v>
       </c>
       <c r="N9">
-        <v>6.05266536845071</v>
+        <v>19.794779</v>
       </c>
       <c r="O9">
-        <v>0.08060556222224891</v>
+        <v>0.08630161692429571</v>
       </c>
       <c r="P9">
-        <v>0.08060556222224891</v>
+        <v>0.09130681895470279</v>
       </c>
       <c r="Q9">
-        <v>7834.578115594428</v>
+        <v>9111.797229003241</v>
       </c>
       <c r="R9">
-        <v>7834.578115594428</v>
+        <v>82006.17506102916</v>
       </c>
       <c r="S9">
-        <v>0.06228338495290832</v>
+        <v>0.06702488620363935</v>
       </c>
       <c r="T9">
-        <v>0.06228338495290832</v>
+        <v>0.075445088734683</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1294.40133208617</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H10">
-        <v>1294.40133208617</v>
+        <v>4142.81842</v>
       </c>
       <c r="I10">
-        <v>0.7726933878480751</v>
+        <v>0.7766353469649819</v>
       </c>
       <c r="J10">
-        <v>0.7726933878480751</v>
+        <v>0.8262809897266405</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.7776481965349</v>
+        <v>26.823721</v>
       </c>
       <c r="N10">
-        <v>26.7776481965349</v>
+        <v>80.471163</v>
       </c>
       <c r="O10">
-        <v>0.3566077515406694</v>
+        <v>0.3508395563637543</v>
       </c>
       <c r="P10">
-        <v>0.3566077515406694</v>
+        <v>0.371187064584827</v>
       </c>
       <c r="Q10">
-        <v>34661.02349572961</v>
+        <v>37041.93515058027</v>
       </c>
       <c r="R10">
-        <v>34661.02349572961</v>
+        <v>333377.4163552225</v>
       </c>
       <c r="S10">
-        <v>0.2755484516708445</v>
+        <v>0.2724744005856047</v>
       </c>
       <c r="T10">
-        <v>0.2755484516708445</v>
+        <v>0.3067048150988773</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1294.40133208617</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H11">
-        <v>1294.40133208617</v>
+        <v>4142.81842</v>
       </c>
       <c r="I11">
-        <v>0.7726933878480751</v>
+        <v>0.7766353469649819</v>
       </c>
       <c r="J11">
-        <v>0.7726933878480751</v>
+        <v>0.8262809897266405</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.7170222531036</v>
+        <v>22.88541033333333</v>
       </c>
       <c r="N11">
-        <v>22.7170222531036</v>
+        <v>68.65623099999999</v>
       </c>
       <c r="O11">
-        <v>0.3025309081634334</v>
+        <v>0.2993286132281626</v>
       </c>
       <c r="P11">
-        <v>0.3025309081634334</v>
+        <v>0.3166886608852391</v>
       </c>
       <c r="Q11">
-        <v>29404.94386544847</v>
+        <v>31603.36649273055</v>
       </c>
       <c r="R11">
-        <v>29404.94386544847</v>
+        <v>284430.298434575</v>
       </c>
       <c r="S11">
-        <v>0.2337636323575582</v>
+        <v>0.2324691813910009</v>
       </c>
       <c r="T11">
-        <v>0.2337636323575582</v>
+        <v>0.2616738201514598</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1294.40133208617</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H12">
-        <v>1294.40133208617</v>
+        <v>4142.81842</v>
       </c>
       <c r="I12">
-        <v>0.7726933878480751</v>
+        <v>0.7766353469649819</v>
       </c>
       <c r="J12">
-        <v>0.7726933878480751</v>
+        <v>0.8262809897266405</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.01702321356988</v>
+        <v>7.575090333333333</v>
       </c>
       <c r="N12">
-        <v>7.01702321356988</v>
+        <v>22.725271</v>
       </c>
       <c r="O12">
-        <v>0.09344826895678034</v>
+        <v>0.09907802619785785</v>
       </c>
       <c r="P12">
-        <v>0.09344826895678034</v>
+        <v>0.1048242167742089</v>
       </c>
       <c r="Q12">
-        <v>9082.84419492443</v>
+        <v>10460.74125536576</v>
       </c>
       <c r="R12">
-        <v>9082.84419492443</v>
+        <v>94146.67129829181</v>
       </c>
       <c r="S12">
-        <v>0.07220685952875271</v>
+        <v>0.0769474972527789</v>
       </c>
       <c r="T12">
-        <v>0.07220685952875271</v>
+        <v>0.08661425758351322</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1294.40133208617</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H13">
-        <v>1294.40133208617</v>
+        <v>4142.81842</v>
       </c>
       <c r="I13">
-        <v>0.7726933878480751</v>
+        <v>0.7766353469649819</v>
       </c>
       <c r="J13">
-        <v>0.7726933878480751</v>
+        <v>0.8262809897266405</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.59936520618204</v>
+        <v>4.6429995</v>
       </c>
       <c r="N13">
-        <v>4.59936520618204</v>
+        <v>9.285999</v>
       </c>
       <c r="O13">
-        <v>0.06125143151679791</v>
+        <v>0.06072788651422123</v>
       </c>
       <c r="P13">
-        <v>0.06125143151679791</v>
+        <v>0.04283326575692263</v>
       </c>
       <c r="Q13">
-        <v>5953.424449632815</v>
+        <v>6411.70128421693</v>
       </c>
       <c r="R13">
-        <v>5953.424449632815</v>
+        <v>38470.20770530157</v>
       </c>
       <c r="S13">
-        <v>0.04732857612925894</v>
+        <v>0.04716342321342226</v>
       </c>
       <c r="T13">
-        <v>0.04732857612925894</v>
+        <v>0.03539231322285425</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.616832947021682</v>
+        <v>1.722832</v>
       </c>
       <c r="H14">
-        <v>0.616832947021682</v>
+        <v>5.168496</v>
       </c>
       <c r="I14">
-        <v>0.0003682186720268041</v>
+        <v>0.000968914462885661</v>
       </c>
       <c r="J14">
-        <v>0.0003682186720268041</v>
+        <v>0.00103085135705228</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.92619761844537</v>
+        <v>7.930325</v>
       </c>
       <c r="N14">
-        <v>7.92619761844537</v>
+        <v>15.86065</v>
       </c>
       <c r="O14">
-        <v>0.10555607760007</v>
+        <v>0.1037243007717083</v>
       </c>
       <c r="P14">
-        <v>0.10555607760007</v>
+        <v>0.07315997304409949</v>
       </c>
       <c r="Q14">
-        <v>4.889139835661894</v>
+        <v>13.6626176804</v>
       </c>
       <c r="R14">
-        <v>4.889139835661894</v>
+        <v>81.9757060824</v>
       </c>
       <c r="S14">
-        <v>3.886771871825604E-05</v>
+        <v>0.0001004999751704105</v>
       </c>
       <c r="T14">
-        <v>3.886771871825604E-05</v>
+        <v>7.54170574944182E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.616832947021682</v>
+        <v>1.722832</v>
       </c>
       <c r="H15">
-        <v>0.616832947021682</v>
+        <v>5.168496</v>
       </c>
       <c r="I15">
-        <v>0.0003682186720268041</v>
+        <v>0.000968914462885661</v>
       </c>
       <c r="J15">
-        <v>0.0003682186720268041</v>
+        <v>0.00103085135705228</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.05266536845071</v>
+        <v>6.598259666666666</v>
       </c>
       <c r="N15">
-        <v>6.05266536845071</v>
+        <v>19.794779</v>
       </c>
       <c r="O15">
-        <v>0.08060556222224891</v>
+        <v>0.08630161692429571</v>
       </c>
       <c r="P15">
-        <v>0.08060556222224891</v>
+        <v>0.09130681895470279</v>
       </c>
       <c r="Q15">
-        <v>3.733483416557526</v>
+        <v>11.36769289804267</v>
       </c>
       <c r="R15">
-        <v>3.733483416557526</v>
+        <v>102.309236082384</v>
       </c>
       <c r="S15">
-        <v>2.968047307945042E-05</v>
+        <v>8.361888480836805E-05</v>
       </c>
       <c r="T15">
-        <v>2.968047307945042E-05</v>
+        <v>9.412375822758224E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.616832947021682</v>
+        <v>1.722832</v>
       </c>
       <c r="H16">
-        <v>0.616832947021682</v>
+        <v>5.168496</v>
       </c>
       <c r="I16">
-        <v>0.0003682186720268041</v>
+        <v>0.000968914462885661</v>
       </c>
       <c r="J16">
-        <v>0.0003682186720268041</v>
+        <v>0.00103085135705228</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.7776481965349</v>
+        <v>26.823721</v>
       </c>
       <c r="N16">
-        <v>26.7776481965349</v>
+        <v>80.471163</v>
       </c>
       <c r="O16">
-        <v>0.3566077515406694</v>
+        <v>0.3508395563637543</v>
       </c>
       <c r="P16">
-        <v>0.3566077515406694</v>
+        <v>0.371187064584827</v>
       </c>
       <c r="Q16">
-        <v>16.51733565137845</v>
+        <v>46.21276489787201</v>
       </c>
       <c r="R16">
-        <v>16.51733565137845</v>
+        <v>415.914884080848</v>
       </c>
       <c r="S16">
-        <v>0.0001313096327067698</v>
+        <v>0.0003399335203132306</v>
       </c>
       <c r="T16">
-        <v>0.0001313096327067698</v>
+        <v>0.0003826386892475213</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.616832947021682</v>
+        <v>1.722832</v>
       </c>
       <c r="H17">
-        <v>0.616832947021682</v>
+        <v>5.168496</v>
       </c>
       <c r="I17">
-        <v>0.0003682186720268041</v>
+        <v>0.000968914462885661</v>
       </c>
       <c r="J17">
-        <v>0.0003682186720268041</v>
+        <v>0.00103085135705228</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.7170222531036</v>
+        <v>22.88541033333333</v>
       </c>
       <c r="N17">
-        <v>22.7170222531036</v>
+        <v>68.65623099999999</v>
       </c>
       <c r="O17">
-        <v>0.3025309081634334</v>
+        <v>0.2993286132281626</v>
       </c>
       <c r="P17">
-        <v>0.3025309081634334</v>
+        <v>0.3166886608852391</v>
       </c>
       <c r="Q17">
-        <v>14.01260778393902</v>
+        <v>39.42771725539733</v>
       </c>
       <c r="R17">
-        <v>14.01260778393902</v>
+        <v>354.8494552985759</v>
       </c>
       <c r="S17">
-        <v>0.0001113975292510025</v>
+        <v>0.0002900238225122749</v>
       </c>
       <c r="T17">
-        <v>0.0001113975292510025</v>
+        <v>0.0003264589358366181</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.616832947021682</v>
+        <v>1.722832</v>
       </c>
       <c r="H18">
-        <v>0.616832947021682</v>
+        <v>5.168496</v>
       </c>
       <c r="I18">
-        <v>0.0003682186720268041</v>
+        <v>0.000968914462885661</v>
       </c>
       <c r="J18">
-        <v>0.0003682186720268041</v>
+        <v>0.00103085135705228</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.01702321356988</v>
+        <v>7.575090333333333</v>
       </c>
       <c r="N18">
-        <v>7.01702321356988</v>
+        <v>22.725271</v>
       </c>
       <c r="O18">
-        <v>0.09344826895678034</v>
+        <v>0.09907802619785785</v>
       </c>
       <c r="P18">
-        <v>0.09344826895678034</v>
+        <v>0.1048242167742089</v>
       </c>
       <c r="Q18">
-        <v>4.328331108145862</v>
+        <v>13.05060802915733</v>
       </c>
       <c r="R18">
-        <v>4.328331108145862</v>
+        <v>117.455472262416</v>
       </c>
       <c r="S18">
-        <v>3.440939749846928E-05</v>
+        <v>9.599813253726889E-05</v>
       </c>
       <c r="T18">
-        <v>3.440939749846928E-05</v>
+        <v>0.0001080581861136356</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.616832947021682</v>
+        <v>1.722832</v>
       </c>
       <c r="H19">
-        <v>0.616832947021682</v>
+        <v>5.168496</v>
       </c>
       <c r="I19">
-        <v>0.0003682186720268041</v>
+        <v>0.000968914462885661</v>
       </c>
       <c r="J19">
-        <v>0.0003682186720268041</v>
+        <v>0.00103085135705228</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.59936520618204</v>
+        <v>4.6429995</v>
       </c>
       <c r="N19">
-        <v>4.59936520618204</v>
+        <v>9.285999</v>
       </c>
       <c r="O19">
-        <v>0.06125143151679791</v>
+        <v>0.06072788651422123</v>
       </c>
       <c r="P19">
-        <v>0.06125143151679791</v>
+        <v>0.04283326575692263</v>
       </c>
       <c r="Q19">
-        <v>2.837039994558254</v>
+        <v>7.999108114584001</v>
       </c>
       <c r="R19">
-        <v>2.837039994558254</v>
+        <v>47.994648687504</v>
       </c>
       <c r="S19">
-        <v>2.255392077285606E-05</v>
+        <v>5.884012754410804E-05</v>
       </c>
       <c r="T19">
-        <v>2.255392077285606E-05</v>
+        <v>4.415473013250466E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.90690506178943</v>
+        <v>4.12431</v>
       </c>
       <c r="H20">
-        <v>3.90690506178943</v>
+        <v>12.37293</v>
       </c>
       <c r="I20">
-        <v>0.002332228523999927</v>
+        <v>0.002319496972672878</v>
       </c>
       <c r="J20">
-        <v>0.002332228523999927</v>
+        <v>0.002467768511615926</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.92619761844537</v>
+        <v>7.930325</v>
       </c>
       <c r="N20">
-        <v>7.92619761844537</v>
+        <v>15.86065</v>
       </c>
       <c r="O20">
-        <v>0.10555607760007</v>
+        <v>0.1037243007717083</v>
       </c>
       <c r="P20">
-        <v>0.10555607760007</v>
+        <v>0.07315997304409949</v>
       </c>
       <c r="Q20">
-        <v>30.96690159624754</v>
+        <v>32.70711870075</v>
       </c>
       <c r="R20">
-        <v>30.96690159624754</v>
+        <v>196.2427122045</v>
       </c>
       <c r="S20">
-        <v>0.000246180895060433</v>
+        <v>0.0002405882016325886</v>
       </c>
       <c r="T20">
-        <v>0.000246180895060433</v>
+        <v>0.0001805418777888987</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.90690506178943</v>
+        <v>4.12431</v>
       </c>
       <c r="H21">
-        <v>3.90690506178943</v>
+        <v>12.37293</v>
       </c>
       <c r="I21">
-        <v>0.002332228523999927</v>
+        <v>0.002319496972672878</v>
       </c>
       <c r="J21">
-        <v>0.002332228523999927</v>
+        <v>0.002467768511615926</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.05266536845071</v>
+        <v>6.598259666666666</v>
       </c>
       <c r="N21">
-        <v>6.05266536845071</v>
+        <v>19.794779</v>
       </c>
       <c r="O21">
-        <v>0.08060556222224891</v>
+        <v>0.08630161692429571</v>
       </c>
       <c r="P21">
-        <v>0.08060556222224891</v>
+        <v>0.09130681895470279</v>
       </c>
       <c r="Q21">
-        <v>23.64718896531766</v>
+        <v>27.21326832583</v>
       </c>
       <c r="R21">
-        <v>23.64718896531766</v>
+        <v>244.91941493247</v>
       </c>
       <c r="S21">
-        <v>0.0001879905914077799</v>
+        <v>0.0002001763391926783</v>
       </c>
       <c r="T21">
-        <v>0.0001879905914077799</v>
+        <v>0.0002253240927122317</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.90690506178943</v>
+        <v>4.12431</v>
       </c>
       <c r="H22">
-        <v>3.90690506178943</v>
+        <v>12.37293</v>
       </c>
       <c r="I22">
-        <v>0.002332228523999927</v>
+        <v>0.002319496972672878</v>
       </c>
       <c r="J22">
-        <v>0.002332228523999927</v>
+        <v>0.002467768511615926</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>26.7776481965349</v>
+        <v>26.823721</v>
       </c>
       <c r="N22">
-        <v>26.7776481965349</v>
+        <v>80.471163</v>
       </c>
       <c r="O22">
-        <v>0.3566077515406694</v>
+        <v>0.3508395563637543</v>
       </c>
       <c r="P22">
-        <v>0.3566077515406694</v>
+        <v>0.371187064584827</v>
       </c>
       <c r="Q22">
-        <v>104.6177292818588</v>
+        <v>110.62934075751</v>
       </c>
       <c r="R22">
-        <v>104.6177292818588</v>
+        <v>995.6640668175901</v>
       </c>
       <c r="S22">
-        <v>0.0008316907700226282</v>
+        <v>0.0008137712888796238</v>
       </c>
       <c r="T22">
-        <v>0.0008316907700226282</v>
+        <v>0.0009160037499015833</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.90690506178943</v>
+        <v>4.12431</v>
       </c>
       <c r="H23">
-        <v>3.90690506178943</v>
+        <v>12.37293</v>
       </c>
       <c r="I23">
-        <v>0.002332228523999927</v>
+        <v>0.002319496972672878</v>
       </c>
       <c r="J23">
-        <v>0.002332228523999927</v>
+        <v>0.002467768511615926</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.7170222531036</v>
+        <v>22.88541033333333</v>
       </c>
       <c r="N23">
-        <v>22.7170222531036</v>
+        <v>68.65623099999999</v>
       </c>
       <c r="O23">
-        <v>0.3025309081634334</v>
+        <v>0.2993286132281626</v>
       </c>
       <c r="P23">
-        <v>0.3025309081634334</v>
+        <v>0.3166886608852391</v>
       </c>
       <c r="Q23">
-        <v>88.75324922943358</v>
+        <v>94.38652669186999</v>
       </c>
       <c r="R23">
-        <v>88.75324922943358</v>
+        <v>849.4787402268299</v>
       </c>
       <c r="S23">
-        <v>0.0007055712134103618</v>
+        <v>0.0006942918122170939</v>
       </c>
       <c r="T23">
-        <v>0.0007055712134103618</v>
+        <v>0.0007815143053184074</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.90690506178943</v>
+        <v>4.12431</v>
       </c>
       <c r="H24">
-        <v>3.90690506178943</v>
+        <v>12.37293</v>
       </c>
       <c r="I24">
-        <v>0.002332228523999927</v>
+        <v>0.002319496972672878</v>
       </c>
       <c r="J24">
-        <v>0.002332228523999927</v>
+        <v>0.002467768511615926</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.01702321356988</v>
+        <v>7.575090333333333</v>
       </c>
       <c r="N24">
-        <v>7.01702321356988</v>
+        <v>22.725271</v>
       </c>
       <c r="O24">
-        <v>0.09344826895678034</v>
+        <v>0.09907802619785785</v>
       </c>
       <c r="P24">
-        <v>0.09344826895678034</v>
+        <v>0.1048242167742089</v>
       </c>
       <c r="Q24">
-        <v>27.4148435117901</v>
+        <v>31.24202081267</v>
       </c>
       <c r="R24">
-        <v>27.4148435117901</v>
+        <v>281.17818731403</v>
       </c>
       <c r="S24">
-        <v>0.00021794271837942</v>
+        <v>0.0002298111818243354</v>
       </c>
       <c r="T24">
-        <v>0.00021794271837942</v>
+        <v>0.0002586819014101947</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.90690506178943</v>
+        <v>4.12431</v>
       </c>
       <c r="H25">
-        <v>3.90690506178943</v>
+        <v>12.37293</v>
       </c>
       <c r="I25">
-        <v>0.002332228523999927</v>
+        <v>0.002319496972672878</v>
       </c>
       <c r="J25">
-        <v>0.002332228523999927</v>
+        <v>0.002467768511615926</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.59936520618204</v>
+        <v>4.6429995</v>
       </c>
       <c r="N25">
-        <v>4.59936520618204</v>
+        <v>9.285999</v>
       </c>
       <c r="O25">
-        <v>0.06125143151679791</v>
+        <v>0.06072788651422123</v>
       </c>
       <c r="P25">
-        <v>0.06125143151679791</v>
+        <v>0.04283326575692263</v>
       </c>
       <c r="Q25">
-        <v>17.9692832050508</v>
+        <v>19.149169267845</v>
       </c>
       <c r="R25">
-        <v>17.9692832050508</v>
+        <v>114.89501560707</v>
       </c>
       <c r="S25">
-        <v>0.0001428523357193042</v>
+        <v>0.0001408581489265583</v>
       </c>
       <c r="T25">
-        <v>0.0001428523357193042</v>
+        <v>0.0001057025844846104</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>67.29785675020671</v>
+        <v>70.81572733333333</v>
       </c>
       <c r="H26">
-        <v>67.29785675020671</v>
+        <v>212.447182</v>
       </c>
       <c r="I26">
-        <v>0.04017348224095456</v>
+        <v>0.03982650798977153</v>
       </c>
       <c r="J26">
-        <v>0.04017348224095456</v>
+        <v>0.04237237793482528</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.92619761844537</v>
+        <v>7.930325</v>
       </c>
       <c r="N26">
-        <v>7.92619761844537</v>
+        <v>15.86065</v>
       </c>
       <c r="O26">
-        <v>0.10555607760007</v>
+        <v>0.1037243007717083</v>
       </c>
       <c r="P26">
-        <v>0.10555607760007</v>
+        <v>0.07315997304409949</v>
       </c>
       <c r="Q26">
-        <v>533.416111899966</v>
+        <v>561.5917328647166</v>
       </c>
       <c r="R26">
-        <v>533.416111899966</v>
+        <v>3369.5503971883</v>
       </c>
       <c r="S26">
-        <v>0.004240555208891232</v>
+        <v>0.004130976693417908</v>
       </c>
       <c r="T26">
-        <v>0.004240555208891232</v>
+        <v>0.003099962027526214</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>67.29785675020671</v>
+        <v>70.81572733333333</v>
       </c>
       <c r="H27">
-        <v>67.29785675020671</v>
+        <v>212.447182</v>
       </c>
       <c r="I27">
-        <v>0.04017348224095456</v>
+        <v>0.03982650798977153</v>
       </c>
       <c r="J27">
-        <v>0.04017348224095456</v>
+        <v>0.04237237793482528</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>6.05266536845071</v>
+        <v>6.598259666666666</v>
       </c>
       <c r="N27">
-        <v>6.05266536845071</v>
+        <v>19.794779</v>
       </c>
       <c r="O27">
-        <v>0.08060556222224891</v>
+        <v>0.08630161692429571</v>
       </c>
       <c r="P27">
-        <v>0.08060556222224891</v>
+        <v>0.09130681895470279</v>
       </c>
       <c r="Q27">
-        <v>407.331406922933</v>
+        <v>467.2605574291975</v>
       </c>
       <c r="R27">
-        <v>407.331406922933</v>
+        <v>4205.345016862778</v>
       </c>
       <c r="S27">
-        <v>0.003238206122457674</v>
+        <v>0.003437092035965665</v>
       </c>
       <c r="T27">
-        <v>0.003238206122457674</v>
+        <v>0.003868887040775335</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>67.29785675020671</v>
+        <v>70.81572733333333</v>
       </c>
       <c r="H28">
-        <v>67.29785675020671</v>
+        <v>212.447182</v>
       </c>
       <c r="I28">
-        <v>0.04017348224095456</v>
+        <v>0.03982650798977153</v>
       </c>
       <c r="J28">
-        <v>0.04017348224095456</v>
+        <v>0.04237237793482528</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>26.7776481965349</v>
+        <v>26.823721</v>
       </c>
       <c r="N28">
-        <v>26.7776481965349</v>
+        <v>80.471163</v>
       </c>
       <c r="O28">
-        <v>0.3566077515406694</v>
+        <v>0.3508395563637543</v>
       </c>
       <c r="P28">
-        <v>0.3566077515406694</v>
+        <v>0.371187064584827</v>
       </c>
       <c r="Q28">
-        <v>1802.078332437837</v>
+        <v>1899.541312401407</v>
       </c>
       <c r="R28">
-        <v>1802.078332437837</v>
+        <v>17095.87181161267</v>
       </c>
       <c r="S28">
-        <v>0.01432617517350582</v>
+        <v>0.01397271439464896</v>
       </c>
       <c r="T28">
-        <v>0.01432617517350582</v>
+        <v>0.01572807858510669</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>67.29785675020671</v>
+        <v>70.81572733333333</v>
       </c>
       <c r="H29">
-        <v>67.29785675020671</v>
+        <v>212.447182</v>
       </c>
       <c r="I29">
-        <v>0.04017348224095456</v>
+        <v>0.03982650798977153</v>
       </c>
       <c r="J29">
-        <v>0.04017348224095456</v>
+        <v>0.04237237793482528</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>22.7170222531036</v>
+        <v>22.88541033333333</v>
       </c>
       <c r="N29">
-        <v>22.7170222531036</v>
+        <v>68.65623099999999</v>
       </c>
       <c r="O29">
-        <v>0.3025309081634334</v>
+        <v>0.2993286132281626</v>
       </c>
       <c r="P29">
-        <v>0.3025309081634334</v>
+        <v>0.3166886608852391</v>
       </c>
       <c r="Q29">
-        <v>1528.806909380624</v>
+        <v>1620.646978076782</v>
       </c>
       <c r="R29">
-        <v>1528.806909380624</v>
+        <v>14585.82280269104</v>
       </c>
       <c r="S29">
-        <v>0.01215372006644354</v>
+        <v>0.01192121340629865</v>
       </c>
       <c r="T29">
-        <v>0.01215372006644354</v>
+        <v>0.01341885162670307</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>67.29785675020671</v>
+        <v>70.81572733333333</v>
       </c>
       <c r="H30">
-        <v>67.29785675020671</v>
+        <v>212.447182</v>
       </c>
       <c r="I30">
-        <v>0.04017348224095456</v>
+        <v>0.03982650798977153</v>
       </c>
       <c r="J30">
-        <v>0.04017348224095456</v>
+        <v>0.04237237793482528</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.01702321356988</v>
+        <v>7.575090333333333</v>
       </c>
       <c r="N30">
-        <v>7.01702321356988</v>
+        <v>22.725271</v>
       </c>
       <c r="O30">
-        <v>0.09344826895678034</v>
+        <v>0.09907802619785785</v>
       </c>
       <c r="P30">
-        <v>0.09344826895678034</v>
+        <v>0.1048242167742089</v>
       </c>
       <c r="Q30">
-        <v>472.2306230397009</v>
+        <v>536.4355315707023</v>
       </c>
       <c r="R30">
-        <v>472.2306230397009</v>
+        <v>4827.919784136322</v>
       </c>
       <c r="S30">
-        <v>0.00375414237338316</v>
+        <v>0.003945931801979779</v>
       </c>
       <c r="T30">
-        <v>0.00375414237338316</v>
+        <v>0.00444165132987883</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>67.29785675020671</v>
+        <v>70.81572733333333</v>
       </c>
       <c r="H31">
-        <v>67.29785675020671</v>
+        <v>212.447182</v>
       </c>
       <c r="I31">
-        <v>0.04017348224095456</v>
+        <v>0.03982650798977153</v>
       </c>
       <c r="J31">
-        <v>0.04017348224095456</v>
+        <v>0.04237237793482528</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.59936520618204</v>
+        <v>4.6429995</v>
       </c>
       <c r="N31">
-        <v>4.59936520618204</v>
+        <v>9.285999</v>
       </c>
       <c r="O31">
-        <v>0.06125143151679791</v>
+        <v>0.06072788651422123</v>
       </c>
       <c r="P31">
-        <v>0.06125143151679791</v>
+        <v>0.04283326575692263</v>
       </c>
       <c r="Q31">
-        <v>309.5274207875239</v>
+        <v>328.797386600803</v>
       </c>
       <c r="R31">
-        <v>309.5274207875239</v>
+        <v>1972.784319604818</v>
       </c>
       <c r="S31">
-        <v>0.002460683296273125</v>
+        <v>0.002418579657460571</v>
       </c>
       <c r="T31">
-        <v>0.002460683296273125</v>
+        <v>0.001814947324835136</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>199.653791290369</v>
+        <v>207.127739</v>
       </c>
       <c r="H32">
-        <v>199.653791290369</v>
+        <v>414.255478</v>
       </c>
       <c r="I32">
-        <v>0.1191834097854573</v>
+        <v>0.1164878885357982</v>
       </c>
       <c r="J32">
-        <v>0.1191834097854573</v>
+        <v>0.08262284069923649</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>7.92619761844537</v>
+        <v>7.930325</v>
       </c>
       <c r="N32">
-        <v>7.92619761844537</v>
+        <v>15.86065</v>
       </c>
       <c r="O32">
-        <v>0.10555607760007</v>
+        <v>0.1037243007717083</v>
       </c>
       <c r="P32">
-        <v>0.10555607760007</v>
+        <v>0.07315997304409949</v>
       </c>
       <c r="Q32">
-        <v>1582.495405039312</v>
+        <v>1642.590286785175</v>
       </c>
       <c r="R32">
-        <v>1582.495405039312</v>
+        <v>6570.361147140699</v>
       </c>
       <c r="S32">
-        <v>0.01258053325195467</v>
+        <v>0.01208262478674837</v>
       </c>
       <c r="T32">
-        <v>0.01258053325195467</v>
+        <v>0.006044684798383068</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>199.653791290369</v>
+        <v>207.127739</v>
       </c>
       <c r="H33">
-        <v>199.653791290369</v>
+        <v>414.255478</v>
       </c>
       <c r="I33">
-        <v>0.1191834097854573</v>
+        <v>0.1164878885357982</v>
       </c>
       <c r="J33">
-        <v>0.1191834097854573</v>
+        <v>0.08262284069923649</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>6.05266536845071</v>
+        <v>6.598259666666666</v>
       </c>
       <c r="N33">
-        <v>6.05266536845071</v>
+        <v>19.794779</v>
       </c>
       <c r="O33">
-        <v>0.08060556222224891</v>
+        <v>0.08630161692429571</v>
       </c>
       <c r="P33">
-        <v>0.08060556222224891</v>
+        <v>0.09130681895470279</v>
       </c>
       <c r="Q33">
-        <v>1208.437588223102</v>
+        <v>1366.68260609156</v>
       </c>
       <c r="R33">
-        <v>1208.437588223102</v>
+        <v>8200.09563654936</v>
       </c>
       <c r="S33">
-        <v>0.009606845753321464</v>
+        <v>0.01005309313273652</v>
       </c>
       <c r="T33">
-        <v>0.009606845753321464</v>
+        <v>0.007544028757248435</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>199.653791290369</v>
+        <v>207.127739</v>
       </c>
       <c r="H34">
-        <v>199.653791290369</v>
+        <v>414.255478</v>
       </c>
       <c r="I34">
-        <v>0.1191834097854573</v>
+        <v>0.1164878885357982</v>
       </c>
       <c r="J34">
-        <v>0.1191834097854573</v>
+        <v>0.08262284069923649</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>26.7776481965349</v>
+        <v>26.823721</v>
       </c>
       <c r="N34">
-        <v>26.7776481965349</v>
+        <v>80.471163</v>
       </c>
       <c r="O34">
-        <v>0.3566077515406694</v>
+        <v>0.3508395563637543</v>
       </c>
       <c r="P34">
-        <v>0.3566077515406694</v>
+        <v>0.371187064584827</v>
       </c>
       <c r="Q34">
-        <v>5346.258984277905</v>
+        <v>5555.93668229682</v>
       </c>
       <c r="R34">
-        <v>5346.258984277905</v>
+        <v>33335.62009378091</v>
       </c>
       <c r="S34">
-        <v>0.04250172778454213</v>
+        <v>0.04086855913564991</v>
       </c>
       <c r="T34">
-        <v>0.04250172778454213</v>
+        <v>0.03066852970680937</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>199.653791290369</v>
+        <v>207.127739</v>
       </c>
       <c r="H35">
-        <v>199.653791290369</v>
+        <v>414.255478</v>
       </c>
       <c r="I35">
-        <v>0.1191834097854573</v>
+        <v>0.1164878885357982</v>
       </c>
       <c r="J35">
-        <v>0.1191834097854573</v>
+        <v>0.08262284069923649</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>22.7170222531036</v>
+        <v>22.88541033333333</v>
       </c>
       <c r="N35">
-        <v>22.7170222531036</v>
+        <v>68.65623099999999</v>
       </c>
       <c r="O35">
-        <v>0.3025309081634334</v>
+        <v>0.2993286132281626</v>
       </c>
       <c r="P35">
-        <v>0.3025309081634334</v>
+        <v>0.3166886608852391</v>
       </c>
       <c r="Q35">
-        <v>4535.539619659815</v>
+        <v>4740.203298430569</v>
       </c>
       <c r="R35">
-        <v>4535.539619659815</v>
+        <v>28441.21979058341</v>
       </c>
       <c r="S35">
-        <v>0.03605666520040902</v>
+        <v>0.03486815813329727</v>
       </c>
       <c r="T35">
-        <v>0.03605666520040902</v>
+        <v>0.02616571677957564</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>199.653791290369</v>
+        <v>207.127739</v>
       </c>
       <c r="H36">
-        <v>199.653791290369</v>
+        <v>414.255478</v>
       </c>
       <c r="I36">
-        <v>0.1191834097854573</v>
+        <v>0.1164878885357982</v>
       </c>
       <c r="J36">
-        <v>0.1191834097854573</v>
+        <v>0.08262284069923649</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.01702321356988</v>
+        <v>7.575090333333333</v>
       </c>
       <c r="N36">
-        <v>7.01702321356988</v>
+        <v>22.725271</v>
       </c>
       <c r="O36">
-        <v>0.09344826895678034</v>
+        <v>0.09907802619785785</v>
       </c>
       <c r="P36">
-        <v>0.09344826895678034</v>
+        <v>0.1048242167742089</v>
       </c>
       <c r="Q36">
-        <v>1400.975288161755</v>
+        <v>1569.01133346409</v>
       </c>
       <c r="R36">
-        <v>1400.975288161755</v>
+        <v>9414.068000784537</v>
       </c>
       <c r="S36">
-        <v>0.01113748333281758</v>
+        <v>0.01154139007208296</v>
       </c>
       <c r="T36">
-        <v>0.01113748333281758</v>
+        <v>0.008660874563957694</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>199.653791290369</v>
+        <v>207.127739</v>
       </c>
       <c r="H37">
-        <v>199.653791290369</v>
+        <v>414.255478</v>
       </c>
       <c r="I37">
-        <v>0.1191834097854573</v>
+        <v>0.1164878885357982</v>
       </c>
       <c r="J37">
-        <v>0.1191834097854573</v>
+        <v>0.08262284069923649</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.59936520618204</v>
+        <v>4.6429995</v>
       </c>
       <c r="N37">
-        <v>4.59936520618204</v>
+        <v>9.285999</v>
       </c>
       <c r="O37">
-        <v>0.06125143151679791</v>
+        <v>0.06072788651422123</v>
       </c>
       <c r="P37">
-        <v>0.06125143151679791</v>
+        <v>0.04283326575692263</v>
       </c>
       <c r="Q37">
-        <v>918.280700943254</v>
+        <v>961.6939886131305</v>
       </c>
       <c r="R37">
-        <v>918.280700943254</v>
+        <v>3846.775954452522</v>
       </c>
       <c r="S37">
-        <v>0.007300154462412397</v>
+        <v>0.007074063275283208</v>
       </c>
       <c r="T37">
-        <v>0.007300154462412397</v>
+        <v>0.00353900609326228</v>
       </c>
     </row>
   </sheetData>
